--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.73180333333334</v>
+        <v>12.265976</v>
       </c>
       <c r="H2">
-        <v>68.19541000000001</v>
+        <v>36.797928</v>
       </c>
       <c r="I2">
-        <v>0.007290521456144306</v>
+        <v>0.004000867643088759</v>
       </c>
       <c r="J2">
-        <v>0.007290521456144306</v>
+        <v>0.004000867643088758</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.714516333333334</v>
+        <v>7.407905</v>
       </c>
       <c r="N2">
-        <v>26.143549</v>
+        <v>22.223715</v>
       </c>
       <c r="O2">
-        <v>0.1832255053237971</v>
+        <v>0.1577242380174723</v>
       </c>
       <c r="P2">
-        <v>0.1832255053237971</v>
+        <v>0.1577242380174723</v>
       </c>
       <c r="Q2">
-        <v>198.0966714344545</v>
+        <v>90.86518494028</v>
       </c>
       <c r="R2">
-        <v>1782.87004291009</v>
+        <v>817.7866644625199</v>
       </c>
       <c r="S2">
-        <v>0.001335809477876025</v>
+        <v>0.0006310338004149349</v>
       </c>
       <c r="T2">
-        <v>0.001335809477876025</v>
+        <v>0.0006310338004149348</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.73180333333334</v>
+        <v>12.265976</v>
       </c>
       <c r="H3">
-        <v>68.19541000000001</v>
+        <v>36.797928</v>
       </c>
       <c r="I3">
-        <v>0.007290521456144306</v>
+        <v>0.004000867643088759</v>
       </c>
       <c r="J3">
-        <v>0.007290521456144306</v>
+        <v>0.004000867643088758</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>49.462564</v>
       </c>
       <c r="O3">
-        <v>0.3466554324170239</v>
+        <v>0.3510414535684271</v>
       </c>
       <c r="P3">
-        <v>0.346655432417024</v>
+        <v>0.3510414535684271</v>
       </c>
       <c r="Q3">
-        <v>374.7910924034712</v>
+        <v>202.2355409741547</v>
       </c>
       <c r="R3">
-        <v>3373.119831631241</v>
+        <v>1820.119868767392</v>
       </c>
       <c r="S3">
-        <v>0.002527298867925295</v>
+        <v>0.001404470392964765</v>
       </c>
       <c r="T3">
-        <v>0.002527298867925295</v>
+        <v>0.001404470392964765</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.73180333333334</v>
+        <v>12.265976</v>
       </c>
       <c r="H4">
-        <v>68.19541000000001</v>
+        <v>36.797928</v>
       </c>
       <c r="I4">
-        <v>0.007290521456144306</v>
+        <v>0.004000867643088759</v>
       </c>
       <c r="J4">
-        <v>0.007290521456144306</v>
+        <v>0.004000867643088758</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.735891666666667</v>
+        <v>5.464566666666666</v>
       </c>
       <c r="N4">
-        <v>11.207675</v>
+        <v>16.3937</v>
       </c>
       <c r="O4">
-        <v>0.07854832239417409</v>
+        <v>0.1163479571613943</v>
       </c>
       <c r="P4">
-        <v>0.0785483223941741</v>
+        <v>0.1163479571613943</v>
       </c>
       <c r="Q4">
-        <v>84.92355464130557</v>
+        <v>67.02824358373333</v>
       </c>
       <c r="R4">
-        <v>764.3119917717503</v>
+        <v>603.2541922536</v>
       </c>
       <c r="S4">
-        <v>0.0005726582297588664</v>
+        <v>0.0004654927771464995</v>
       </c>
       <c r="T4">
-        <v>0.0005726582297588665</v>
+        <v>0.0004654927771464994</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.73180333333334</v>
+        <v>12.265976</v>
       </c>
       <c r="H5">
-        <v>68.19541000000001</v>
+        <v>36.797928</v>
       </c>
       <c r="I5">
-        <v>0.007290521456144306</v>
+        <v>0.004000867643088759</v>
       </c>
       <c r="J5">
-        <v>0.007290521456144306</v>
+        <v>0.004000867643088758</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.62376966666667</v>
+        <v>17.60745533333333</v>
       </c>
       <c r="N5">
-        <v>55.871309</v>
+        <v>52.822366</v>
       </c>
       <c r="O5">
-        <v>0.391570739865005</v>
+        <v>0.3748863512527063</v>
       </c>
       <c r="P5">
-        <v>0.391570739865005</v>
+        <v>0.3748863512527063</v>
       </c>
       <c r="Q5">
-        <v>423.3518693879656</v>
+        <v>215.9726245397387</v>
       </c>
       <c r="R5">
-        <v>3810.166824491691</v>
+        <v>1943.753620857648</v>
       </c>
       <c r="S5">
-        <v>0.002854754880584119</v>
+        <v>0.00149987067256256</v>
       </c>
       <c r="T5">
-        <v>0.00285475488058412</v>
+        <v>0.001499870672562559</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>9128.088134</v>
       </c>
       <c r="I6">
-        <v>0.9758504625824999</v>
+        <v>0.9924545876219728</v>
       </c>
       <c r="J6">
-        <v>0.9758504625824997</v>
+        <v>0.9924545876219727</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.714516333333334</v>
+        <v>7.407905</v>
       </c>
       <c r="N6">
-        <v>26.143549</v>
+        <v>22.223715</v>
       </c>
       <c r="O6">
-        <v>0.1832255053237971</v>
+        <v>0.1577242380174723</v>
       </c>
       <c r="P6">
-        <v>0.1832255053237971</v>
+        <v>0.1577242380174723</v>
       </c>
       <c r="Q6">
-        <v>26515.6243786164</v>
+        <v>22540.00324276642</v>
       </c>
       <c r="R6">
-        <v>238640.6194075476</v>
+        <v>202860.0291848978</v>
       </c>
       <c r="S6">
-        <v>0.1788006941271396</v>
+        <v>0.1565341435996203</v>
       </c>
       <c r="T6">
-        <v>0.1788006941271396</v>
+        <v>0.1565341435996204</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>9128.088134</v>
       </c>
       <c r="I7">
-        <v>0.9758504625824999</v>
+        <v>0.9924545876219728</v>
       </c>
       <c r="J7">
-        <v>0.9758504625824997</v>
+        <v>0.9924545876219727</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>49.462564</v>
       </c>
       <c r="O7">
-        <v>0.3466554324170239</v>
+        <v>0.3510414535684271</v>
       </c>
       <c r="P7">
-        <v>0.346655432417024</v>
+        <v>0.3510414535684271</v>
       </c>
       <c r="Q7">
         <v>50166.51594729062</v>
@@ -883,10 +883,10 @@
         <v>451498.6435256156</v>
       </c>
       <c r="S7">
-        <v>0.3382838640808893</v>
+        <v>0.3483927010394712</v>
       </c>
       <c r="T7">
-        <v>0.3382838640808893</v>
+        <v>0.3483927010394712</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>9128.088134</v>
       </c>
       <c r="I8">
-        <v>0.9758504625824999</v>
+        <v>0.9924545876219728</v>
       </c>
       <c r="J8">
-        <v>0.9758504625824997</v>
+        <v>0.9924545876219727</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.735891666666667</v>
+        <v>5.464566666666666</v>
       </c>
       <c r="N8">
-        <v>11.207675</v>
+        <v>16.3937</v>
       </c>
       <c r="O8">
-        <v>0.07854832239417409</v>
+        <v>0.1163479571613943</v>
       </c>
       <c r="P8">
-        <v>0.0785483223941741</v>
+        <v>0.1163479571613943</v>
       </c>
       <c r="Q8">
-        <v>11367.18279746983</v>
+        <v>16627.01538248398</v>
       </c>
       <c r="R8">
-        <v>102304.6451772285</v>
+        <v>149643.1384423558</v>
       </c>
       <c r="S8">
-        <v>0.07665141674343412</v>
+        <v>0.1154700638452705</v>
       </c>
       <c r="T8">
-        <v>0.07665141674343412</v>
+        <v>0.1154700638452705</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>9128.088134</v>
       </c>
       <c r="I9">
-        <v>0.9758504625824999</v>
+        <v>0.9924545876219728</v>
       </c>
       <c r="J9">
-        <v>0.9758504625824997</v>
+        <v>0.9924545876219727</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.62376966666667</v>
+        <v>17.60745533333333</v>
       </c>
       <c r="N9">
-        <v>55.871309</v>
+        <v>52.822366</v>
       </c>
       <c r="O9">
-        <v>0.391570739865005</v>
+        <v>0.3748863512527063</v>
       </c>
       <c r="P9">
-        <v>0.391570739865005</v>
+        <v>0.3748863512527063</v>
       </c>
       <c r="Q9">
-        <v>56666.47030154971</v>
+        <v>53574.13469937834</v>
       </c>
       <c r="R9">
-        <v>509998.2327139474</v>
+        <v>482167.212294405</v>
       </c>
       <c r="S9">
-        <v>0.3821144876310368</v>
+        <v>0.3720576791376106</v>
       </c>
       <c r="T9">
-        <v>0.3821144876310368</v>
+        <v>0.3720576791376106</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.63053333333333</v>
+        <v>8.377189333333332</v>
       </c>
       <c r="H10">
-        <v>151.8916</v>
+        <v>25.131568</v>
       </c>
       <c r="I10">
-        <v>0.016238174516556</v>
+        <v>0.002732438555542716</v>
       </c>
       <c r="J10">
-        <v>0.016238174516556</v>
+        <v>0.002732438555542716</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.714516333333334</v>
+        <v>7.407905</v>
       </c>
       <c r="N10">
-        <v>26.143549</v>
+        <v>22.223715</v>
       </c>
       <c r="O10">
-        <v>0.1832255053237971</v>
+        <v>0.1577242380174723</v>
       </c>
       <c r="P10">
-        <v>0.1832255053237971</v>
+        <v>0.1577242380174723</v>
       </c>
       <c r="Q10">
-        <v>441.2206096987111</v>
+        <v>62.05742274834665</v>
       </c>
       <c r="R10">
-        <v>3970.9854872884</v>
+        <v>558.5168047351199</v>
       </c>
       <c r="S10">
-        <v>0.002975247731331977</v>
+        <v>0.0004309717891025375</v>
       </c>
       <c r="T10">
-        <v>0.002975247731331977</v>
+        <v>0.0004309717891025375</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>50.63053333333333</v>
+        <v>8.377189333333332</v>
       </c>
       <c r="H11">
-        <v>151.8916</v>
+        <v>25.131568</v>
       </c>
       <c r="I11">
-        <v>0.016238174516556</v>
+        <v>0.002732438555542716</v>
       </c>
       <c r="J11">
-        <v>0.016238174516556</v>
+        <v>0.002732438555542716</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>49.462564</v>
       </c>
       <c r="O11">
-        <v>0.3466554324170239</v>
+        <v>0.3510414535684271</v>
       </c>
       <c r="P11">
-        <v>0.346655432417024</v>
+        <v>0.3510414535684271</v>
       </c>
       <c r="Q11">
-        <v>834.7719984513776</v>
+        <v>138.1190878467058</v>
       </c>
       <c r="R11">
-        <v>7512.9479860624</v>
+        <v>1243.071790620352</v>
       </c>
       <c r="S11">
-        <v>0.005629051408699818</v>
+        <v>0.0009591992023241283</v>
       </c>
       <c r="T11">
-        <v>0.005629051408699819</v>
+        <v>0.0009591992023241284</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>50.63053333333333</v>
+        <v>8.377189333333332</v>
       </c>
       <c r="H12">
-        <v>151.8916</v>
+        <v>25.131568</v>
       </c>
       <c r="I12">
-        <v>0.016238174516556</v>
+        <v>0.002732438555542716</v>
       </c>
       <c r="J12">
-        <v>0.016238174516556</v>
+        <v>0.002732438555542716</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.735891666666667</v>
+        <v>5.464566666666666</v>
       </c>
       <c r="N12">
-        <v>11.207675</v>
+        <v>16.3937</v>
       </c>
       <c r="O12">
-        <v>0.07854832239417409</v>
+        <v>0.1163479571613943</v>
       </c>
       <c r="P12">
-        <v>0.0785483223941741</v>
+        <v>0.1163479571613943</v>
       </c>
       <c r="Q12">
-        <v>189.1501875588889</v>
+        <v>45.77770959128888</v>
       </c>
       <c r="R12">
-        <v>1702.35168803</v>
+        <v>411.9993863216</v>
       </c>
       <c r="S12">
-        <v>0.001275481367019303</v>
+        <v>0.0003179136440064259</v>
       </c>
       <c r="T12">
-        <v>0.001275481367019303</v>
+        <v>0.000317913644006426</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>50.63053333333333</v>
+        <v>8.377189333333332</v>
       </c>
       <c r="H13">
-        <v>151.8916</v>
+        <v>25.131568</v>
       </c>
       <c r="I13">
-        <v>0.016238174516556</v>
+        <v>0.002732438555542716</v>
       </c>
       <c r="J13">
-        <v>0.016238174516556</v>
+        <v>0.002732438555542716</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.62376966666667</v>
+        <v>17.60745533333333</v>
       </c>
       <c r="N13">
-        <v>55.871309</v>
+        <v>52.822366</v>
       </c>
       <c r="O13">
-        <v>0.391570739865005</v>
+        <v>0.3748863512527063</v>
       </c>
       <c r="P13">
-        <v>0.391570739865005</v>
+        <v>0.3748863512527063</v>
       </c>
       <c r="Q13">
-        <v>942.9313909004889</v>
+        <v>147.5009870055431</v>
       </c>
       <c r="R13">
-        <v>8486.382518104399</v>
+        <v>1327.508883049888</v>
       </c>
       <c r="S13">
-        <v>0.006358394009504902</v>
+        <v>0.001024353920109624</v>
       </c>
       <c r="T13">
-        <v>0.006358394009504903</v>
+        <v>0.001024353920109624</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.93578</v>
+        <v>2.489778666666667</v>
       </c>
       <c r="H14">
-        <v>5.807339999999999</v>
+        <v>7.469336</v>
       </c>
       <c r="I14">
-        <v>0.0006208414447999516</v>
+        <v>0.0008121061793956991</v>
       </c>
       <c r="J14">
-        <v>0.0006208414447999514</v>
+        <v>0.0008121061793956991</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.714516333333334</v>
+        <v>7.407905</v>
       </c>
       <c r="N14">
-        <v>26.143549</v>
+        <v>22.223715</v>
       </c>
       <c r="O14">
-        <v>0.1832255053237971</v>
+        <v>0.1577242380174723</v>
       </c>
       <c r="P14">
-        <v>0.1832255053237971</v>
+        <v>0.1577242380174723</v>
       </c>
       <c r="Q14">
-        <v>16.86938642774</v>
+        <v>18.44404383369333</v>
       </c>
       <c r="R14">
-        <v>151.82447784966</v>
+        <v>165.99639450324</v>
       </c>
       <c r="S14">
-        <v>0.0001137539874494274</v>
+        <v>0.0001280888283344673</v>
       </c>
       <c r="T14">
-        <v>0.0001137539874494274</v>
+        <v>0.0001280888283344673</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.93578</v>
+        <v>2.489778666666667</v>
       </c>
       <c r="H15">
-        <v>5.807339999999999</v>
+        <v>7.469336</v>
       </c>
       <c r="I15">
-        <v>0.0006208414447999516</v>
+        <v>0.0008121061793956991</v>
       </c>
       <c r="J15">
-        <v>0.0006208414447999514</v>
+        <v>0.0008121061793956991</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>49.462564</v>
       </c>
       <c r="O15">
-        <v>0.3466554324170239</v>
+        <v>0.3510414535684271</v>
       </c>
       <c r="P15">
-        <v>0.346655432417024</v>
+        <v>0.3510414535684271</v>
       </c>
       <c r="Q15">
-        <v>31.91621404663999</v>
+        <v>41.05027888194489</v>
       </c>
       <c r="R15">
-        <v>287.2459264197599</v>
+        <v>369.452509937504</v>
       </c>
       <c r="S15">
-        <v>0.0002152180595095371</v>
+        <v>0.000285082933666968</v>
       </c>
       <c r="T15">
-        <v>0.0002152180595095371</v>
+        <v>0.000285082933666968</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.93578</v>
+        <v>2.489778666666667</v>
       </c>
       <c r="H16">
-        <v>5.807339999999999</v>
+        <v>7.469336</v>
       </c>
       <c r="I16">
-        <v>0.0006208414447999516</v>
+        <v>0.0008121061793956991</v>
       </c>
       <c r="J16">
-        <v>0.0006208414447999514</v>
+        <v>0.0008121061793956991</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.735891666666667</v>
+        <v>5.464566666666666</v>
       </c>
       <c r="N16">
-        <v>11.207675</v>
+        <v>16.3937</v>
       </c>
       <c r="O16">
-        <v>0.07854832239417409</v>
+        <v>0.1163479571613943</v>
       </c>
       <c r="P16">
-        <v>0.0785483223941741</v>
+        <v>0.1163479571613943</v>
       </c>
       <c r="Q16">
-        <v>7.231864370499999</v>
+        <v>13.60556150924444</v>
       </c>
       <c r="R16">
-        <v>65.08677933449999</v>
+        <v>122.4500535832</v>
       </c>
       <c r="S16">
-        <v>4.876605396181143E-05</v>
+        <v>9.448689497083437E-05</v>
       </c>
       <c r="T16">
-        <v>4.876605396181143E-05</v>
+        <v>9.448689497083438E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.93578</v>
+        <v>2.489778666666667</v>
       </c>
       <c r="H17">
-        <v>5.807339999999999</v>
+        <v>7.469336</v>
       </c>
       <c r="I17">
-        <v>0.0006208414447999516</v>
+        <v>0.0008121061793956991</v>
       </c>
       <c r="J17">
-        <v>0.0006208414447999514</v>
+        <v>0.0008121061793956991</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.62376966666667</v>
+        <v>17.60745533333333</v>
       </c>
       <c r="N17">
-        <v>55.871309</v>
+        <v>52.822366</v>
       </c>
       <c r="O17">
-        <v>0.391570739865005</v>
+        <v>0.3748863512527063</v>
       </c>
       <c r="P17">
-        <v>0.391570739865005</v>
+        <v>0.3748863512527063</v>
       </c>
       <c r="Q17">
-        <v>36.05152084533999</v>
+        <v>43.83866666321956</v>
       </c>
       <c r="R17">
-        <v>324.46368760806</v>
+        <v>394.547999968976</v>
       </c>
       <c r="S17">
-        <v>0.0002431033438791757</v>
+        <v>0.0003044475224234293</v>
       </c>
       <c r="T17">
-        <v>0.0002431033438791756</v>
+        <v>0.0003044475224234294</v>
       </c>
     </row>
   </sheetData>
